--- a/data/trans_orig/P79A9_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A9_2023-Provincia-trans_orig.xlsx
@@ -1104,16 +1104,16 @@
         <v>3408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>942</v>
+        <v>1035</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>4893</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.69655190417556</v>
+        <v>0.6965519041755601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1924279833938676</v>
+        <v>0.2115951577603637</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1125,16 +1125,16 @@
         <v>4538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>6023</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.753466464290401</v>
+        <v>0.7534664642904011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3011347511491008</v>
+        <v>0.3018938250321394</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3721</v>
+        <v>3862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3034480958244399</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7604087175512233</v>
+        <v>0.7891961357004843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1191,16 +1191,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.246533535709599</v>
+        <v>0.2465335357095991</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6978395473063803</v>
+        <v>0.6981061749678605</v>
       </c>
     </row>
     <row r="12">
